--- a/data/income_statement/2digits/size/15_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/15_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>15-Manufacture of leather and related products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>15-Manufacture of leather and related products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,509 +841,574 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1040753.17491</v>
+        <v>888558.01436</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1262264.17657</v>
+        <v>1087629.226</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2042889.91454</v>
+        <v>1910350.25925</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2579111.22076</v>
+        <v>2385298.379350001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2568453.44889</v>
+        <v>2252366.82412</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2599457.3509</v>
+        <v>2219211.78725</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2844645.5911</v>
+        <v>2321642.16781</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3441915.72857</v>
+        <v>2783276.61378</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4683997.003190001</v>
+        <v>4025247.79888</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4087787.13968</v>
+        <v>3883111.71794</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5119490.3261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4859669.42221</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4839835.689</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>796007.69626</v>
+        <v>663696.23546</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>897019.30784</v>
+        <v>763036.7593399999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1477069.38549</v>
+        <v>1374749.66369</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1960466.71431</v>
+        <v>1813701.93276</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1939678.953</v>
+        <v>1688106.86289</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1940403.81742</v>
+        <v>1625873.39145</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2145873.99239</v>
+        <v>1714590.81901</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2836497.545859999</v>
+        <v>2282633.39744</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3852764.267680001</v>
+        <v>3255215.19023</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3077045.58122</v>
+        <v>2950753.21372</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3920684.04732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3730670.36563</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3673603.986</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>231911.59579</v>
+        <v>213700.36373</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>349185.17082</v>
+        <v>312622.88188</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>539599.2201700001</v>
+        <v>512163.34251</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>593476.73679</v>
+        <v>547126.8246700001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>603902.65295</v>
+        <v>541086.36386</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>635586.40278</v>
+        <v>572142.28541</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>642200.0790800001</v>
+        <v>553600.50587</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>556437.92473</v>
+        <v>457694.3856699999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>775559.95169</v>
+        <v>717947.85476</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>944390.4217300001</v>
+        <v>872684.4803499999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1118431.44503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1052187.20317</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1049907.886</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12833.88286</v>
+        <v>11161.41517</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>16059.69791</v>
+        <v>11969.58478</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>26221.30888</v>
+        <v>23437.25305</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>25167.76966</v>
+        <v>24469.62192</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>24871.84294</v>
+        <v>23173.59737</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>23467.1307</v>
+        <v>21196.11039</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>56571.51963</v>
+        <v>53450.84293</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>48980.25798</v>
+        <v>42948.83067</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>55672.78382</v>
+        <v>52084.75389</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>66351.13673</v>
+        <v>59674.02387</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>80374.83375000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>76811.85341</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>116323.817</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>27486.08755</v>
+        <v>21867.41158</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>28707.2107</v>
+        <v>23230.70952</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>69743.07328999999</v>
+        <v>68273.58164999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>148098.30648</v>
+        <v>144780.46389</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>166818.83005</v>
+        <v>160493.86734</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>193256.92947</v>
+        <v>187047.38273</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>229141.38133</v>
+        <v>210108.56603</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>298940.13498</v>
+        <v>286088.83754</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>425455.5885</v>
+        <v>413317.62468</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>572695.9653200001</v>
+        <v>564892.52574</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>661993.24651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>659936.4549299999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>418356.042</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>20034.3741</v>
+        <v>15909.94851</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>20319.12351</v>
+        <v>16848.91943</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>36806.54417</v>
+        <v>35341.71148</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>41818.23211</v>
+        <v>38998.57164</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>40070.68825</v>
+        <v>35191.07426</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>55698.64034000001</v>
+        <v>51020.91014</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>80254.30787</v>
+        <v>63486.24583</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>90916.95279</v>
+        <v>80608.63511</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>113752.51762</v>
+        <v>104010.23943</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>142090.28063</v>
+        <v>134320.73058</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>128132.10654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>126099.26748</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>115528.339</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6154.41458</v>
+        <v>4703.325390000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7339.27812</v>
+        <v>5412.64483</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>31285.42096</v>
+        <v>31282.53651</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>104246.50301</v>
+        <v>103748.32089</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>122813.83839</v>
+        <v>121557.80404</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>131807.64577</v>
+        <v>130376.64978</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>144743.38463</v>
+        <v>142784.68552</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>204987.9565</v>
+        <v>202553.03096</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>305350.37647</v>
+        <v>303149.81101</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>423345.68764</v>
+        <v>423333.20651</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>528907.68496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>528883.7324400001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>299318.599</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1297.29887</v>
+        <v>1254.13768</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1048.80907</v>
+        <v>969.14526</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1651.10816</v>
+        <v>1649.33366</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>2033.57136</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3934.30341</v>
+        <v>3744.98904</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5750.64336</v>
+        <v>5649.82281</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4143.68883</v>
+        <v>3837.63468</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3035.22569</v>
+        <v>2927.17147</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6352.69441</v>
+        <v>6157.57424</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7259.997050000001</v>
+        <v>7238.588650000001</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>4953.45501</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>3509.104</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1013267.08736</v>
+        <v>866690.60278</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1233556.96587</v>
+        <v>1064398.51648</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1973146.84125</v>
+        <v>1842076.6776</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2431012.91428</v>
+        <v>2240517.91546</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2401634.61884</v>
+        <v>2091872.95678</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2406200.42143</v>
+        <v>2032164.40452</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2615504.20977</v>
+        <v>2111533.60178</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3142975.59359</v>
+        <v>2497187.77624</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4258541.41469</v>
+        <v>3611930.1742</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3515091.17436</v>
+        <v>3318219.1922</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4457497.07959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4199732.96728</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4421479.647</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>800626.7441</v>
+        <v>679177.49954</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>996319.96345</v>
+        <v>841078.19693</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1609574.20845</v>
+        <v>1488621.58756</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2043878.50615</v>
+        <v>1875855.28985</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1940173.02657</v>
+        <v>1678004.76171</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1935225.20869</v>
+        <v>1618619.6268</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2088768.2043</v>
+        <v>1676896.33747</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2555886.89248</v>
+        <v>2002937.53751</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3456545.304310001</v>
+        <v>2897386.8076</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2800037.74774</v>
+        <v>2637872.35203</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3498634.80043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3276505.86802</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3539719.771</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>675854.2503199999</v>
+        <v>565151.8869</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>863669.6698299999</v>
+        <v>732014.2361399999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1349855.60441</v>
+        <v>1249945.69242</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1733910.69753</v>
+        <v>1605805.61172</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1715290.73977</v>
+        <v>1473533.49377</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1667704.01832</v>
+        <v>1412318.58042</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1787222.44674</v>
+        <v>1421723.78425</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2201442.54724</v>
+        <v>1718588.92398</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2970670.84308</v>
+        <v>2515494.68308</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2401603.80019</v>
+        <v>2241789.34603</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3055250.74915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2842954.05414</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3145084.102</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>114293.52835</v>
+        <v>105552.119</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>117707.68223</v>
+        <v>96424.77690000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>240571.25449</v>
+        <v>223144.72697</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>286373.99612</v>
+        <v>247149.51486</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>187493.13341</v>
+        <v>167316.93132</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>220523.20124</v>
+        <v>177447.57619</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>276521.82085</v>
+        <v>234837.78451</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>324198.5636000001</v>
+        <v>257792.61016</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>438358.7231</v>
+        <v>354043.08618</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>376979.40503</v>
+        <v>374753.20488</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>401963.58816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>392182.1505399999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>324844.992</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>153.41209</v>
+        <v>59.1</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5400.40254</v>
+        <v>3626.28181</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8699.13812</v>
+        <v>5383.90542</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6500.376099999999</v>
+        <v>6091.763099999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>8498.796309999998</v>
+        <v>8486.72185</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>9319.94274</v>
+        <v>798.51768</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3551.05144</v>
+        <v>443.92919</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7723.80351</v>
+        <v>4950.99667</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>22104.55633</v>
+        <v>12826.40341</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>7769.902319999999</v>
@@ -1450,134 +1416,154 @@
       <c r="M17" s="48" t="n">
         <v>8655.55091</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>8645.049000000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10325.55334</v>
+        <v>8414.39364</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>9542.208849999999</v>
+        <v>9012.90208</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10448.21143</v>
+        <v>10147.26275</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>17093.4364</v>
+        <v>16808.40017</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>28890.35708</v>
+        <v>28667.61477</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>37678.04639</v>
+        <v>28054.95251</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>21472.88527</v>
+        <v>19890.83952</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>22521.97813</v>
+        <v>21605.0067</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>25411.1818</v>
+        <v>15022.63493</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>13684.6402</v>
+        <v>13559.8988</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>32764.91221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>32714.11243</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>61145.628</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>212640.34326</v>
+        <v>187513.10324</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>237237.00242</v>
+        <v>223320.31955</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>363572.6328</v>
+        <v>353455.09004</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>387134.40813</v>
+        <v>364662.62561</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>461461.59227</v>
+        <v>413868.1950700001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>470975.21274</v>
+        <v>413544.77772</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>526736.00547</v>
+        <v>434637.26431</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>587088.70111</v>
+        <v>494250.23873</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>801996.11038</v>
+        <v>714543.3666000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>715053.42662</v>
+        <v>680346.8401700001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>958862.27916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>923227.09926</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>881759.876</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>148649.47266</v>
+        <v>133850.06602</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>174840.66964</v>
+        <v>164124.37467</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>237365.79814</v>
+        <v>230783.89148</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>284739.87501</v>
+        <v>274738.33583</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>299004.70188</v>
+        <v>278312.73025</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>324590.10663</v>
+        <v>300081.55534</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>352874.45753</v>
+        <v>308918.6431699999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>430745.52368</v>
+        <v>375200.36387</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>486878.84653</v>
+        <v>443996.4403</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>511537.95822</v>
+        <v>499993.97846</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>589126.8527200001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>574490.2917000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>526452.026</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2273.44552</v>
+        <v>2259.68057</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1869.02359</v>
+        <v>1849.07676</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>5485.005800000001</v>
@@ -1589,7 +1575,7 @@
         <v>2360.59103</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2340.03237</v>
+        <v>2163.7501</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>2966.07449</v>
@@ -1598,7 +1584,7 @@
         <v>3013.63251</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3442.31325</v>
+        <v>3437.05791</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>5662.48054</v>
@@ -1606,194 +1592,219 @@
       <c r="M21" s="48" t="n">
         <v>6634.44421</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>7014.294</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>85280.93193000001</v>
+        <v>79301.32753</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>95258.90675999998</v>
+        <v>91257.60781</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>135323.08239</v>
+        <v>132356.18614</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>167828.22365</v>
+        <v>164312.66848</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>186476.56946</v>
+        <v>181098.02895</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>216485.82307</v>
+        <v>209336.89883</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>229180.23675</v>
+        <v>216525.51367</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>280862.54259</v>
+        <v>257096.10414</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>333500.56072</v>
+        <v>315295.8466</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>369960.22749</v>
+        <v>364283.3495599999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>430007.70783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>422802.55422</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>358295.757</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>61095.09521</v>
+        <v>52289.05792</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>77712.73929000001</v>
+        <v>71017.69009999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>96557.70995</v>
+        <v>92942.69954</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>113027.31404</v>
+        <v>106541.33003</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>110167.54139</v>
+        <v>94854.11027</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>105764.25119</v>
+        <v>88580.90641</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>120728.14629</v>
+        <v>89427.05501</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>146869.34858</v>
+        <v>115090.62722</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>149935.97256</v>
+        <v>125263.53579</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>135915.25019</v>
+        <v>130048.14836</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>152484.70068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>145053.29327</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>161141.975</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>63990.87059999999</v>
+        <v>53663.03722</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>62396.33278</v>
+        <v>59195.94488</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>126206.83466</v>
+        <v>122671.19856</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>102394.53312</v>
+        <v>89924.28978000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>162456.89039</v>
+        <v>135555.46482</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>146385.10611</v>
+        <v>113463.22238</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>173861.54794</v>
+        <v>125718.62114</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>156343.17743</v>
+        <v>119049.87486</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>315117.26385</v>
+        <v>270546.9263</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>203515.4684</v>
+        <v>180352.86171</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>369735.42644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>348736.80756</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>355307.85</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>52206.87814</v>
+        <v>44953.31553</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>61978.48417</v>
+        <v>48396.89791</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>97730.57031</v>
+        <v>87159.92413</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>120925.45577</v>
+        <v>111053.43084</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>138258.04581</v>
+        <v>103624.27551</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>175694.21874</v>
+        <v>131338.42442</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>347514.27381</v>
+        <v>244570.62474</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>245870.59671</v>
+        <v>142333.15713</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>258649.9679</v>
+        <v>189858.67418</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>428035.12084</v>
+        <v>349754.82744</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>204175.85031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>157826.63236</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>300456.454</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>981.95667</v>
+        <v>474.93379</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>664.34727</v>
+        <v>636.9244</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>871.9436899999999</v>
+        <v>698.73713</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>574.6719000000001</v>
+        <v>320.23643</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>276.60913</v>
+        <v>256.76542</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2693.32018</v>
+        <v>2351.1231</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>640.02572</v>
+        <v>372.85911</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1571.78986</v>
+        <v>527.808</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3399.27103</v>
+        <v>787.04254</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>29.3717</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>47.31591</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>41.342</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1620.89282</v>
+        <v>1566.87973</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0.01592</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4886.63646</v>
+        <v>4855.41863</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4810.791740000001</v>
+        <v>4623.15359</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4450.49075</v>
+        <v>4333.126189999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>6121.05109</v>
+        <v>5197.48261</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4769.522720000001</v>
+        <v>2739.44807</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8062.46402</v>
+        <v>3108.81317</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10820.49797</v>
+        <v>2674.01668</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7620.79701</v>
+        <v>1616.42742</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>12115.956</v>
+        <v>10654.00646</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16808.76863</v>
+        <v>16707.48097</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>25369.8769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6945.88928</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>13861.715</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>76.27119</v>
@@ -1895,7 +1921,7 @@
         <v>36.00464</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>242.34776</v>
+        <v>65.07422</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>34.22449</v>
@@ -1904,13 +1930,13 @@
         <v>26.93033</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>21.49809</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.00132</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>125.36987</v>
+        <v>0.28497</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,50 +1944,60 @@
       <c r="M29" s="48" t="n">
         <v>214.19887</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>167.923</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1341.91934</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1745.94812</v>
+        <v>1162.65475</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1139.39491</v>
+        <v>1131.39491</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2198.22721</v>
+        <v>2160.57323</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1351.12867</v>
+        <v>841.2006700000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>458.41783</v>
+        <v>81.57246000000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>492.47252</v>
+        <v>98.49126</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1439.35553</v>
+        <v>678.0631999999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1098.63861</v>
+        <v>1057.93861</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>84.45648</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1718.88304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1714.97428</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>518.35</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>24.47651</v>
@@ -1982,64 +2018,74 @@
         <v>7.23522</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4.65475</v>
+        <v>0.9794299999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>416.49071</v>
+        <v>0</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4674.50219</v>
+        <v>4655.22</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>69.93038</v>
+        <v>5.36966</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>32312.35871</v>
+        <v>27094.80039</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>40282.1248</v>
+        <v>29239.11189</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>66957.8211</v>
+        <v>57336.37634</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>72475.68896</v>
+        <v>65614.03769000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>90761.41372</v>
+        <v>59776.08809999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>89650.75602</v>
+        <v>55698.87292</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>203880.69771</v>
+        <v>122695.24522</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>140697.87692</v>
+        <v>64814.09666</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>152590.84687</v>
+        <v>107050.0609</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>329375.9786</v>
+        <v>254166.75993</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>133274.24498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>105833.40855</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>238288.627</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,28 +2103,33 @@
         <v>263.47132</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>193.67716</v>
+        <v>192.44702</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5527.79589</v>
+        <v>2593.71009</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>12094.62621</v>
+        <v>2186.09957</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>14305.28501</v>
+        <v>3396.13514</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>5630.158780000001</v>
+        <v>2834.44006</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>11163.50664</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4507.833</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>12583.25926</v>
+        <v>11085.49568</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>14468.9717</v>
+        <v>12728.75274</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>24009.9693</v>
+        <v>23359.339</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>37763.74879</v>
+        <v>36146.3066</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>40786.29148000001</v>
+        <v>39697.69316</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72980.52515999999</v>
+        <v>68304.55047</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>126126.63116</v>
+        <v>116135.32295</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>82029.65915000001</v>
+        <v>72510.66228</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>70340.0824</v>
+        <v>62257.98556</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>76036.45627000001</v>
+        <v>75926.94864</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>32387.82397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>31907.33883</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>43070.664</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>43798.33618999999</v>
+        <v>38675.97546</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>36774.55597</v>
+        <v>27446.27501</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>82913.74855</v>
+        <v>76063.42493000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>76524.46712999999</v>
+        <v>70268.31826999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>160440.58993</v>
+        <v>131819.22931</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>145728.12208</v>
+        <v>108698.02162</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>333681.13574</v>
+        <v>236783.18121</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>258218.43724</v>
+        <v>176881.08646</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>229014.49949</v>
+        <v>172935.63508</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>444804.29825</v>
+        <v>347460.60523</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>240054.52952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>205757.26355</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>278810.308</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>7.396</v>
+        <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>266.2272</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>577.8030799999999</v>
+        <v>551.8850799999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>539.8365799999999</v>
+        <v>473.495</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4501.37982</v>
+        <v>4438.4156</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>647.38543</v>
+        <v>460.1524</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1624.94297</v>
+        <v>813.85805</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3301.97063</v>
+        <v>1671.53044</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>2632.355</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>2870.86803</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2344.192</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5766.70863</v>
+        <v>5457.60863</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>754.06337</v>
+        <v>28.11716</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>553.5033000000001</v>
+        <v>510.19932</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>4744.79888</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>755.94061</v>
+        <v>292.49</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4461.95464</v>
+        <v>3647.82857</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8332.078879999999</v>
+        <v>2345.06035</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7261.924390000001</v>
+        <v>4146.72102</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>16633.77499</v>
+        <v>14396.7593</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2454.55016</v>
+        <v>374.87537</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>41929.99661</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>14755.471</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3.3258</v>
+        <v>2.74295</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0.01151</v>
@@ -2291,16 +2367,16 @@
         <v>0.85112</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>46.96264</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.19129</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>836.96013</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2063.361</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>31164.15216</v>
+        <v>26580.04027</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>33592.60196</v>
+        <v>25001.66724</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>72777.34270000001</v>
+        <v>66016.83894</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>51472.90916</v>
+        <v>46157.56054</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>115122.036</v>
+        <v>87225.99981000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>91019.81574999999</v>
+        <v>55523.2601</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>212742.14991</v>
+        <v>128649.13777</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>172082.09618</v>
+        <v>105288.86035</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>165297.95324</v>
+        <v>125946.06805</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>387874.49694</v>
+        <v>295846.29839</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>164172.34856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>130164.43419</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>232915.472</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,28 +2455,33 @@
         <v>412.53565</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2228.47769</v>
+        <v>1858.40785</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>6264.05881</v>
+        <v>2968.81625</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>12640.57791</v>
+        <v>3366.62924</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>16550.89245</v>
+        <v>4787.920980000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>9580.89293</v>
+        <v>6345.07325</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>6968.20242</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4780.635</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,149 +2516,169 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>145.833</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6867.475399999999</v>
+        <v>6638.32656</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2420.49464</v>
+        <v>2416.49061</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9313.349550000001</v>
+        <v>9267.416519999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>19728.9445</v>
+        <v>18814.06226</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>43609.38997</v>
+        <v>43413.85773</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>43469.53154</v>
+        <v>43230.1095</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>105695.27142</v>
+        <v>102360.01444</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>64608.89579</v>
+        <v>63265.01779999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>26392.94805</v>
+        <v>26133.35631</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>42262.00322</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>24113.1139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>23823.7623</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21805.344</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>36317.98946</v>
+        <v>28397.50547</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>30596.71949</v>
+        <v>23222.59366</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>68880.00870000001</v>
+        <v>60799.20956999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>64175.53877000001</v>
+        <v>53132.91735</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>78734.63122</v>
+        <v>62739.13773999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>75111.03952999999</v>
+        <v>52040.96285</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>126926.59429</v>
+        <v>65825.16159</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>128152.4866</v>
+        <v>69536.34031999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>171090.73517</v>
+        <v>118314.32732</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>171280.54423</v>
+        <v>162558.06384</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>119628.24588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>118736.64998</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>161283.579</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>35345.87871</v>
+        <v>28397.50547</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>29364.98746</v>
+        <v>23222.59366</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>61199.38740000001</v>
+        <v>56022.22928</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>57189.20045</v>
+        <v>48912.69962000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>73701.56378</v>
+        <v>58232.02548</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>66043.60436</v>
+        <v>42973.52768</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>116876.44449</v>
+        <v>56075.11056</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>119947.64437</v>
+        <v>61331.49809</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>157894.8707</v>
+        <v>105118.46285</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>144392.58444</v>
+        <v>135670.10405</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>107989.49055</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>107097.89465</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>152634.651</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>972.1107500000001</v>
+        <v>0</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1231.73203</v>
+        <v>0</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7680.621300000001</v>
+        <v>4776.98029</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>6986.338320000001</v>
+        <v>4220.21773</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5033.067440000001</v>
+        <v>4507.11226</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>9067.435170000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10050.1498</v>
+        <v>9750.051030000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>8204.84223</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>11638.75533</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>8648.928</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>36081.42309</v>
+        <v>31542.87182</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>57003.54149</v>
+        <v>56923.97412000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>72143.64771999999</v>
+        <v>72968.48819</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>82619.98298999999</v>
+        <v>77576.485</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>61539.71505</v>
+        <v>44621.37328</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>101240.16324</v>
+        <v>84062.66232999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>60768.09172</v>
+        <v>67680.90308</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>15842.8503</v>
+        <v>14965.60521</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>173661.99709</v>
+        <v>169155.63808</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>15465.74676</v>
+        <v>20089.02008</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>214228.50135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>182069.52639</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>215670.417</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>25143.21674</v>
+        <v>19455.141</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7977.354139999999</v>
+        <v>4820.96148</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>21457.85262</v>
+        <v>20903.08689</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>16115.57325</v>
+        <v>12644.66237</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>37833.83721</v>
+        <v>36632.05647</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>43569.58055</v>
+        <v>19392.88572</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>33726.08598</v>
+        <v>29623.39075</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>24167.73241</v>
+        <v>16432.39571</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>25599.09567</v>
+        <v>19899.35001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>55248.21152</v>
+        <v>54260.33127</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>22677.35706</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>21789.90625</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>25236.059</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2556.74092</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>248.04362</v>
+        <v>206.6561</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>22.43417</v>
@@ -2684,13 +2810,13 @@
         <v>69.31883000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>26.10442</v>
+        <v>15.26432</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>120.32296</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>54.78381</v>
+        <v>54.19484</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>394.61944</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3.202</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>22586.47582</v>
+        <v>16898.40008</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7729.310520000001</v>
+        <v>4614.30538</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>21435.41845</v>
+        <v>20880.65272</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>15937.59693</v>
+        <v>12466.68605</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>37824.35630000001</v>
+        <v>36622.57556</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>43500.26172</v>
+        <v>19323.56689</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>33699.98156</v>
+        <v>29608.12643</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>24047.40945</v>
+        <v>16312.07275</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>25544.31186</v>
+        <v>19845.15517</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>55248.21152</v>
+        <v>54260.33127</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>22282.73762</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>21395.28681</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>25232.857</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>24553.36137</v>
+        <v>23491.89782</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7929.87617</v>
+        <v>7008.11558</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>50542.15083</v>
+        <v>45484.55155</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>14882.53352</v>
+        <v>10974.392</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11801.66216</v>
+        <v>11214.39637</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>32621.15421</v>
+        <v>19204.28068</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>15523.80798</v>
+        <v>11688.58859</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>80893.10568000001</v>
+        <v>66664.15019</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>19460.61663</v>
+        <v>15974.4916</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>45474.94954</v>
+        <v>41748.38003</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>33923.81914</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>24409.82808</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>19547.552</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2595.06221</v>
@@ -2792,226 +2933,254 @@
         <v>6402.27985</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4708.82263</v>
+        <v>3335.33277</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>646.80836</v>
+        <v>474.9326100000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1529.80123</v>
+        <v>1234.56455</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4019.01442</v>
+        <v>2558.15689</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3212.64725</v>
+        <v>2346.02941</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5000.662560000001</v>
+        <v>4471.94503</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3577.10711</v>
+        <v>515.38211</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10734.39479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1881.80808</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2586.206</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2007.67647</v>
+        <v>1841.37089</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>304.7276000000001</v>
+        <v>130.48819</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>902.87446</v>
+        <v>882.0601000000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>209.30215</v>
+        <v>196.64261</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>543.2859999999999</v>
+        <v>531.0714</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2147.85293</v>
+        <v>2093.33348</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>682.1158</v>
+        <v>383.41313</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>320.90605</v>
+        <v>259.01072</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>469.93681</v>
+        <v>348.54508</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>445.73577</v>
+        <v>442.67675</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11554.83586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>11427.8501</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>535.593</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>19950.62269</v>
+        <v>19055.46472</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7008.50864</v>
+        <v>6260.98746</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>43236.99651999999</v>
+        <v>38200.2116</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9964.408740000001</v>
+        <v>7442.41662</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10611.5678</v>
+        <v>10208.39236</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>28943.50005</v>
+        <v>15876.38265</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10822.67776</v>
+        <v>8747.01857</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>77359.55237999999</v>
+        <v>64059.11006</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>13990.01726</v>
+        <v>11154.00149</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>41452.10666</v>
+        <v>40790.32117</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11634.58849</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11100.1699</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>16425.753</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>36671.27846</v>
+        <v>27506.115</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>57051.01946</v>
+        <v>54736.82002000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>43059.34951</v>
+        <v>48387.02353</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>83853.02271999999</v>
+        <v>79246.75537</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>87571.89009999999</v>
+        <v>70039.03337999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>112188.58958</v>
+        <v>84251.26737</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>78970.36972</v>
+        <v>85615.70524000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-40882.52297</v>
+        <v>-35266.14926999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>179800.47613</v>
+        <v>173080.49649</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>25239.00873999999</v>
+        <v>32600.97132</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>202982.03927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>179449.60456</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>221358.924</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>10609.71188</v>
+        <v>9191.288919999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12629.35289</v>
+        <v>11815.41491</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>18083.82626</v>
+        <v>17329.96087</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>21023.19181</v>
+        <v>20144.02361</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16292.5478</v>
+        <v>14029.57221</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>19944.58683</v>
+        <v>16113.98194</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>18393.17138</v>
+        <v>15137.02278</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21850.38291</v>
+        <v>18143.85777</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>31729.85689</v>
+        <v>28451.29605</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>22483.69855</v>
+        <v>22104.75018</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>37868.52936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>31212.69892</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>44750.645</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>26061.56658</v>
+        <v>18314.82608</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>44421.66657</v>
+        <v>42921.40511</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>24975.52325</v>
+        <v>31057.06266</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>62829.83091</v>
+        <v>59102.73176</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>71279.34230000002</v>
+        <v>56009.46117</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>92244.00275</v>
+        <v>68137.28543</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>60577.19834</v>
+        <v>70478.68246000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-62732.90588</v>
+        <v>-53410.00704</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>148070.61924</v>
+        <v>144629.20044</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2755.310190000002</v>
+        <v>10496.22114</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>165113.50991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>148236.90564</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>176608.279</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>30</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>37</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>21</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>37</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>21</v>
+      </c>
+      <c r="M59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>25</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>38</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>37</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>59</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>66</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>24</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>